--- a/__fixtures__/db-screenshot.xlsx
+++ b/__fixtures__/db-screenshot.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,9 +427,12 @@
         <v>mailchimpSetting</v>
       </c>
       <c r="G1" t="str">
+        <v>geoapifySetting</v>
+      </c>
+      <c r="H1" t="str">
         <v>updatedAt</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>updatedBy</v>
       </c>
     </row>
@@ -447,12 +450,18 @@
         <v>[{"name":"cheque","hidden":false},{"name":"cash","hidden":false},{"name":"e-transfer","hidden":false}]</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-08-19T13:14:13.341Z</v>
+        <v>{"apiKey":"YZo1n0wIUAVSDBeEsxhgiQ=="}</v>
+      </c>
+      <c r="H2" t="str">
+        <v>2025-08-28T17:37:49.786Z</v>
+      </c>
+      <c r="I2" t="str">
+        <v>dev@email.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/__fixtures__/db-screenshot.xlsx
+++ b/__fixtures__/db-screenshot.xlsx
@@ -6,9 +6,10 @@
     <sheet name="Community" sheetId="1" r:id="rId1"/>
     <sheet name="Property" sheetId="2" r:id="rId2"/>
     <sheet name="Occupant" sheetId="3" r:id="rId3"/>
-    <sheet name="Membership" sheetId="4" r:id="rId4"/>
-    <sheet name="Event" sheetId="5" r:id="rId5"/>
-    <sheet name="Ticket" sheetId="6" r:id="rId6"/>
+    <sheet name="Contact" sheetId="4" r:id="rId4"/>
+    <sheet name="Membership" sheetId="5" r:id="rId5"/>
+    <sheet name="Event" sheetId="6" r:id="rId6"/>
+    <sheet name="Ticket" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -441,19 +442,19 @@
         <v>Sample Community</v>
       </c>
       <c r="C2" t="str">
-        <v>[{"name":"Clean-Up","hidden":false},{"name":"Community Forum","hidden":false},{"name":"Membership Form","hidden":false},{"name":"Meet &amp; Greet","hidden":false},{"name":"Town Hall","hidden":false},{"name":"Town Planning Night","hidden":false}]</v>
+        <v>[{"name":"Clean-Up","hidden":false},{"name":"Town Planning Night","hidden":false},{"name":"Town Hall","hidden":false},{"name":"Meet &amp; Greet","hidden":false},{"name":"Community Forum","hidden":false},{"name":"Membership Form","hidden":false}]</v>
       </c>
       <c r="D2" t="str">
-        <v>[{"name":"Coffee","count":null,"unitPrice":null,"hidden":false},{"name":"Snack","count":null,"unitPrice":null,"hidden":false},{"name":"Meal","count":null,"unitPrice":null,"hidden":false}]</v>
+        <v>[{"name":"Meal","count":null,"unitPrice":null,"hidden":false},{"name":"Coffee","count":null,"unitPrice":null,"hidden":false},{"name":"Snack","count":null,"unitPrice":null,"hidden":false}]</v>
       </c>
       <c r="E2" t="str">
-        <v>[{"name":"cheque","hidden":false},{"name":"cash","hidden":false},{"name":"e-transfer","hidden":false}]</v>
+        <v>[{"name":"cheque","hidden":false},{"name":"e-transfer","hidden":false},{"name":"cash","hidden":false}]</v>
       </c>
       <c r="G2" t="str">
-        <v>{"apiKey":"YZo1n0wIUAVSDBeEsxhgiQ=="}</v>
+        <v>{"apiKey":"7RBvsiJ5YFMdzt6N5zQgaA=="}</v>
       </c>
       <c r="H2" t="str">
-        <v>2025-08-28T17:37:49.786Z</v>
+        <v>2025-10-02T20:44:30.697Z</v>
       </c>
       <c r="I2" t="str">
         <v>dev@email.com</v>
@@ -511,27 +512,28 @@
         <v>updatedBy</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>6319 Birch Avenue</v>
+        <v>346 E Jefferson Street</v>
       </c>
       <c r="C2">
-        <v>6319</v>
+        <v>346</v>
       </c>
       <c r="D2" t="str">
-        <v>Birch Avenue</v>
+        <v>E Jefferson Street</v>
       </c>
       <c r="E2" t="str">
-        <v>59768</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Adfectus audentia peior tenax.</v>
+        <v>47363-2738</v>
+      </c>
+      <c r="J2" t="str" xml:space="preserve">
+        <v xml:space="preserve">Supplanto depereo distinctio deorsum civitas patruus templum comparo.
+Tergo quis callide.</v>
       </c>
       <c r="K2" t="str">
-        <v>2024-08-30T08:39:36.693Z</v>
+        <v>2025-05-24T14:56:29.230Z</v>
       </c>
       <c r="L2" t="str">
         <v>test@email.com</v>
@@ -542,79 +544,78 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>45361 Jarret Cliffs</v>
+        <v>370 Farrell Port</v>
       </c>
       <c r="C3">
-        <v>45361</v>
+        <v>370</v>
       </c>
       <c r="D3" t="str">
-        <v>Jarret Cliffs</v>
+        <v>Farrell Port</v>
       </c>
       <c r="E3" t="str">
-        <v>99127</v>
+        <v>28764-1433</v>
       </c>
       <c r="J3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Stillicidium coerceo universe.
-Caries synagoga facere constans tardus alias.
-Canto via adulatio laudantium curtus spes agnitio aptus accusator arcus.
-Adinventitias templum abbas.</v>
+        <v xml:space="preserve">Usus adflicto pecus suggero abbas.
+Xiphias virtus comminor tepidus comburo bis.</v>
       </c>
       <c r="K3" t="str">
-        <v>2025-03-27T07:38:53.434Z</v>
+        <v>2024-10-12T10:40:21.991Z</v>
       </c>
       <c r="L3" t="str">
         <v>test@email.com</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" xml:space="preserve">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>3371 Johan Estates</v>
+        <v>5970 Grand Avenue</v>
       </c>
       <c r="C4">
-        <v>3371</v>
+        <v>5970</v>
       </c>
       <c r="D4" t="str">
-        <v>Johan Estates</v>
+        <v>Grand Avenue</v>
       </c>
       <c r="E4" t="str">
-        <v>14924-4324</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Armarium cultura contra.</v>
+        <v>28135</v>
+      </c>
+      <c r="J4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Conscendo textilis auditor voluptatem toties cupiditate crustulum ipsa.
+Civitas usitas adiuvo ulterius unde vita terreo cotidie ager.
+Votum aequitas varietas perspiciatis.
+Tredecim atavus vesco delicate asperiores repudiandae adsum clamo tum socius.</v>
       </c>
       <c r="K4" t="str">
-        <v>2024-08-26T12:08:46.153Z</v>
+        <v>2025-01-24T10:33:49.901Z</v>
       </c>
       <c r="L4" t="str">
         <v>test@email.com</v>
       </c>
     </row>
-    <row r="5" xml:space="preserve">
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>1443 Myron Loaf</v>
+        <v>1464 Kiehn Radial</v>
       </c>
       <c r="C5">
-        <v>1443</v>
+        <v>1464</v>
       </c>
       <c r="D5" t="str">
-        <v>Myron Loaf</v>
+        <v>Kiehn Radial</v>
       </c>
       <c r="E5" t="str">
-        <v>96601</v>
-      </c>
-      <c r="J5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Eaque conatus cado conor defluo calco.
-Crux tribuo tamisium accusantium aspernatur verecundia ago.
-Tibi aequus deleo vitiosus maiores error vitae corpus.</v>
+        <v>16677-3502</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Fugiat est bonus sum tametsi clibanus.</v>
       </c>
       <c r="K5" t="str">
-        <v>2024-12-07T04:45:20.714Z</v>
+        <v>2024-11-16T16:21:17.254Z</v>
       </c>
       <c r="L5" t="str">
         <v>test@email.com</v>
@@ -625,24 +626,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>907 Sven Parkway</v>
+        <v>4849 Madilyn Radial</v>
       </c>
       <c r="C6">
-        <v>907</v>
+        <v>4849</v>
       </c>
       <c r="D6" t="str">
-        <v>Sven Parkway</v>
+        <v>Madilyn Radial</v>
       </c>
       <c r="E6" t="str">
-        <v>59521-0305</v>
+        <v>18741</v>
       </c>
       <c r="J6" t="str" xml:space="preserve">
-        <v xml:space="preserve">Velit tendo adeo templum stella decumbo.
-Utique cubo vito varietas aetas dapifer eaque tendo certus sopor.
-Conicio torqueo caste ad caste suffragium.</v>
+        <v xml:space="preserve">Tenus alter depromo colligo tricesimus utrimque vacuus alienus alioqui approbo.
+Aegre aufero cruciamentum.</v>
       </c>
       <c r="K6" t="str">
-        <v>2025-03-13T20:51:16.205Z</v>
+        <v>2025-02-21T11:42:56.727Z</v>
       </c>
       <c r="L6" t="str">
         <v>test@email.com</v>
@@ -653,107 +653,101 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>5787 Tromp Rapids</v>
+        <v>68587 Noel Gateway</v>
       </c>
       <c r="C7">
-        <v>5787</v>
+        <v>68587</v>
       </c>
       <c r="D7" t="str">
-        <v>Tromp Rapids</v>
+        <v>Noel Gateway</v>
       </c>
       <c r="E7" t="str">
-        <v>86835</v>
+        <v>17458</v>
       </c>
       <c r="J7" t="str" xml:space="preserve">
-        <v xml:space="preserve">Quas asporto spoliatio verumtamen.
-Acceptus tabula cinis alveus.</v>
+        <v xml:space="preserve">Teneo adopto annus cursus aperte tepidus.
+Error cometes validus deporto.</v>
       </c>
       <c r="K7" t="str">
-        <v>2025-04-12T08:28:49.091Z</v>
+        <v>2025-05-31T14:15:45.180Z</v>
       </c>
       <c r="L7" t="str">
         <v>test@email.com</v>
       </c>
     </row>
-    <row r="8" xml:space="preserve">
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>9262 Victoria Place</v>
+        <v>29158 Ridge Road</v>
       </c>
       <c r="C8">
-        <v>9262</v>
+        <v>29158</v>
       </c>
       <c r="D8" t="str">
-        <v>Victoria Place</v>
+        <v>Ridge Road</v>
       </c>
       <c r="E8" t="str">
-        <v>34482</v>
-      </c>
-      <c r="J8" t="str" xml:space="preserve">
-        <v xml:space="preserve">Centum cauda advoco volo solum sperno.
-Utique depopulo exercitationem verus ultio candidus vesica.</v>
+        <v>88364-8030</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Aegre vinculum cauda.</v>
       </c>
       <c r="K8" t="str">
-        <v>2025-08-07T12:50:32.427Z</v>
+        <v>2025-09-12T03:04:55.765Z</v>
       </c>
       <c r="L8" t="str">
         <v>test@email.com</v>
       </c>
     </row>
-    <row r="9" xml:space="preserve">
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>305 Walsh Isle</v>
+        <v>41632 Turner Fords</v>
       </c>
       <c r="C9">
-        <v>305</v>
+        <v>41632</v>
       </c>
       <c r="D9" t="str">
-        <v>Walsh Isle</v>
+        <v>Turner Fords</v>
       </c>
       <c r="E9" t="str">
-        <v>45352-0970</v>
-      </c>
-      <c r="J9" t="str" xml:space="preserve">
-        <v xml:space="preserve">Auxilium blanditiis ascisco amplus coepi carcer corpus.
-Cibus bonus virga conitor pax.
-Auxilium acceptus velit cubicularis cetera a voluptas.
-Quibusdam adhuc delicate supellex praesentium cubicularis audeo torqueo.
-Studio molestiae celer vulpes allatus in.</v>
+        <v>41089</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Animadverto acceptus quibusdam amaritudo adstringo acervus quia.</v>
       </c>
       <c r="K9" t="str">
-        <v>2024-11-22T04:28:53.708Z</v>
+        <v>2024-10-29T23:39:54.698Z</v>
       </c>
       <c r="L9" t="str">
         <v>test@email.com</v>
       </c>
     </row>
-    <row r="10" xml:space="preserve">
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>24120 Western Road</v>
+        <v>861 Water Street</v>
       </c>
       <c r="C10">
-        <v>24120</v>
+        <v>861</v>
       </c>
       <c r="D10" t="str">
-        <v>Western Road</v>
+        <v>Water Street</v>
       </c>
       <c r="E10" t="str">
-        <v>42803</v>
-      </c>
-      <c r="J10" t="str" xml:space="preserve">
-        <v xml:space="preserve">Valens umbra apud.
-Venia coepi torqueo audax adversus amet umbra aggredior.</v>
+        <v>34042-0269</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Demitto sumptus vivo.</v>
       </c>
       <c r="K10" t="str">
-        <v>2025-08-07T10:46:24.762Z</v>
+        <v>2025-09-02T05:36:08.891Z</v>
       </c>
       <c r="L10" t="str">
         <v>test@email.com</v>
@@ -764,26 +758,26 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>54415 Zboncak Stravenue</v>
+        <v>268 Willms Crest</v>
       </c>
       <c r="C11">
-        <v>54415</v>
+        <v>268</v>
       </c>
       <c r="D11" t="str">
-        <v>Zboncak Stravenue</v>
+        <v>Willms Crest</v>
       </c>
       <c r="E11" t="str">
-        <v>67408-8813</v>
+        <v>80463-4148</v>
       </c>
       <c r="J11" t="str" xml:space="preserve">
-        <v xml:space="preserve">Cibus tabgo maxime coma adeptio cupio.
-Sint ventus placeat quis tertius.
-Officiis ipsa atque ancilla.
-Totam facere tergiversatio custodia cumque creta viscus decipio.
-Harum sequi compello chirographum tubineus avarus stillicidium cuppedia.</v>
+        <v xml:space="preserve">Laboriosam admitto sol versus decretum uterque.
+Vallum apparatus capitulus depromo decretum animi magni vivo ciminatio cresco.
+Unus adflicto beatus bardus baiulus repellendus cibus tristis paulatim.
+Sophismata quasi solitudo vapulus minima ascit autus accusator paulatim auctus.
+Suffragium thalassinus cunabula caveo aedificium ambulo tenetur dolores ullus.</v>
       </c>
       <c r="K11" t="str">
-        <v>2025-07-27T20:09:56.432Z</v>
+        <v>2025-01-12T19:14:06.626Z</v>
       </c>
       <c r="L11" t="str">
         <v>test@email.com</v>
@@ -798,7 +792,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -819,18 +813,6 @@
       <c r="E1" t="str">
         <v>optOut</v>
       </c>
-      <c r="F1" t="str">
-        <v>email</v>
-      </c>
-      <c r="G1" t="str">
-        <v>home</v>
-      </c>
-      <c r="H1" t="str">
-        <v>work</v>
-      </c>
-      <c r="I1" t="str">
-        <v>cell</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -840,25 +822,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>Federico</v>
+        <v>Gaetano</v>
       </c>
       <c r="D2" t="str">
-        <v>Fadel</v>
+        <v>Hayes</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Jovanny4@gmail.com</v>
-      </c>
-      <c r="G2" t="str">
-        <v>791-702-7665</v>
-      </c>
-      <c r="H2" t="str">
-        <v>(559) 683-5097 x16658</v>
-      </c>
-      <c r="I2" t="str">
-        <v>(299) 390-6612 x9544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -866,28 +836,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="str">
-        <v>Ava</v>
+        <v>Lonzo</v>
       </c>
       <c r="D3" t="str">
-        <v>Pagac</v>
+        <v>Hegmann</v>
       </c>
       <c r="E3">
         <v>1</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Cecile30@hotmail.com</v>
-      </c>
-      <c r="G3" t="str">
-        <v>(926) 412-0964 x70989</v>
-      </c>
-      <c r="H3" t="str">
-        <v>(344) 543-4878 x50784</v>
-      </c>
-      <c r="I3" t="str">
-        <v>682-791-3720 x340</v>
       </c>
     </row>
     <row r="4">
@@ -895,28 +853,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="str">
-        <v>Jason</v>
+        <v>Florian</v>
       </c>
       <c r="D4" t="str">
-        <v>Lesch</v>
+        <v>Flatley</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Roman.Conroy@hotmail.com</v>
-      </c>
-      <c r="G4" t="str">
-        <v>812.485.9658 x8355</v>
-      </c>
-      <c r="H4" t="str">
-        <v>605.883.7904 x732</v>
-      </c>
-      <c r="I4" t="str">
-        <v>(951) 438-5888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -924,28 +870,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="str">
-        <v>Hollis</v>
+        <v>Conor</v>
       </c>
       <c r="D5" t="str">
-        <v>McLaughlin</v>
+        <v>Stroman</v>
       </c>
       <c r="E5">
         <v>1</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Shane79@hotmail.com</v>
-      </c>
-      <c r="G5" t="str">
-        <v>(601) 421-3342 x341</v>
-      </c>
-      <c r="H5" t="str">
-        <v>920.249.1767</v>
-      </c>
-      <c r="I5" t="str">
-        <v>(791) 958-5031 x97715</v>
       </c>
     </row>
     <row r="6">
@@ -953,28 +887,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="str">
-        <v>Rubie</v>
+        <v>Jermey</v>
       </c>
       <c r="D6" t="str">
-        <v>Gutkowski</v>
+        <v>Hegmann</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Tomasa23@yahoo.com</v>
-      </c>
-      <c r="G6" t="str">
-        <v>(317) 547-4525 x9574</v>
-      </c>
-      <c r="H6" t="str">
-        <v>1-654-557-0499 x104</v>
-      </c>
-      <c r="I6" t="str">
-        <v>(640) 532-1322 x60968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -982,28 +904,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="str">
-        <v>Audie</v>
+        <v>Mia</v>
       </c>
       <c r="D7" t="str">
-        <v>Turcotte</v>
+        <v>Kiehn</v>
       </c>
       <c r="E7">
         <v>0</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Pamela27@gmail.com</v>
-      </c>
-      <c r="G7" t="str">
-        <v>1-250-477-9978 x0578</v>
-      </c>
-      <c r="H7" t="str">
-        <v>1-735-439-5582 x413</v>
-      </c>
-      <c r="I7" t="str">
-        <v>1-853-653-0723 x285</v>
       </c>
     </row>
     <row r="8">
@@ -1011,28 +921,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="str">
-        <v>Santa</v>
+        <v>Stanley</v>
       </c>
       <c r="D8" t="str">
-        <v>Morar</v>
+        <v>Auer</v>
       </c>
       <c r="E8">
         <v>0</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Tyson68@gmail.com</v>
-      </c>
-      <c r="G8" t="str">
-        <v>1-213-511-5499 x28459</v>
-      </c>
-      <c r="H8" t="str">
-        <v>834.375.3487 x2741</v>
-      </c>
-      <c r="I8" t="str">
-        <v>(352) 447-4946 x1036</v>
       </c>
     </row>
     <row r="9">
@@ -1040,28 +938,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" t="str">
-        <v>Caterina</v>
+        <v>Kamren</v>
       </c>
       <c r="D9" t="str">
-        <v>Parisian</v>
+        <v>Morissette</v>
       </c>
       <c r="E9">
         <v>1</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Jaron.Hyatt27@gmail.com</v>
-      </c>
-      <c r="G9" t="str">
-        <v>(280) 438-7328 x986</v>
-      </c>
-      <c r="H9" t="str">
-        <v>379-233-6482 x837</v>
-      </c>
-      <c r="I9" t="str">
-        <v>1-303-949-2721 x8967</v>
       </c>
     </row>
     <row r="10">
@@ -1069,28 +955,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C10" t="str">
-        <v>Mortimer</v>
+        <v>Rickie</v>
       </c>
       <c r="D10" t="str">
-        <v>McKenzie</v>
+        <v>Rogahn</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Justina.Hane@gmail.com</v>
-      </c>
-      <c r="G10" t="str">
-        <v>508-557-6229 x26279</v>
-      </c>
-      <c r="H10" t="str">
-        <v>1-449-710-2864 x186</v>
-      </c>
-      <c r="I10" t="str">
-        <v>581.798.6757 x0086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1098,28 +972,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="str">
-        <v>Shawn</v>
+        <v>Harvey</v>
       </c>
       <c r="D11" t="str">
-        <v>Sanford</v>
+        <v>McLaughlin</v>
       </c>
       <c r="E11">
         <v>1</v>
-      </c>
-      <c r="F11" t="str">
-        <v>Lauriane25@yahoo.com</v>
-      </c>
-      <c r="G11" t="str">
-        <v>1-722-329-0296 x94156</v>
-      </c>
-      <c r="H11" t="str">
-        <v>856-696-1037 x091</v>
-      </c>
-      <c r="I11" t="str">
-        <v>(773) 556-4868 x379</v>
       </c>
     </row>
     <row r="12">
@@ -1127,28 +989,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="str">
-        <v>Elmira</v>
+        <v>Lempi</v>
       </c>
       <c r="D12" t="str">
-        <v>Hammes</v>
+        <v>Daugherty</v>
       </c>
       <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="str">
-        <v>Velda.Hamill@hotmail.com</v>
-      </c>
-      <c r="G12" t="str">
-        <v>533-755-7023 x10984</v>
-      </c>
-      <c r="H12" t="str">
-        <v>430-801-3693</v>
-      </c>
-      <c r="I12" t="str">
-        <v>(324) 687-2944 x0785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1156,28 +1006,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" t="str">
-        <v>Reba</v>
+        <v>Aubrey</v>
       </c>
       <c r="D13" t="str">
-        <v>Lemke</v>
+        <v>Stiedemann</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="str">
-        <v>Calista_Bernier36@yahoo.com</v>
-      </c>
-      <c r="G13" t="str">
-        <v>1-847-381-3580 x592</v>
-      </c>
-      <c r="H13" t="str">
-        <v>1-302-224-1644</v>
-      </c>
-      <c r="I13" t="str">
-        <v>1-251-816-2614 x0222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1185,28 +1023,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="str">
-        <v>Amari</v>
+        <v>Justina</v>
       </c>
       <c r="D14" t="str">
-        <v>Welch</v>
+        <v>Reilly</v>
       </c>
       <c r="E14">
         <v>1</v>
-      </c>
-      <c r="F14" t="str">
-        <v>Ericka.McDermott@gmail.com</v>
-      </c>
-      <c r="G14" t="str">
-        <v>(278) 439-7133 x0147</v>
-      </c>
-      <c r="H14" t="str">
-        <v>863.657.3010</v>
-      </c>
-      <c r="I14" t="str">
-        <v>(450) 809-4481</v>
       </c>
     </row>
     <row r="15">
@@ -1214,299 +1040,1009 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="str">
-        <v>Lera</v>
+        <v>Savanah</v>
       </c>
       <c r="D15" t="str">
-        <v>Ortiz</v>
+        <v>Kautzer</v>
       </c>
       <c r="E15">
         <v>1</v>
-      </c>
-      <c r="F15" t="str">
-        <v>Hyman.Kris5@gmail.com</v>
-      </c>
-      <c r="G15" t="str">
-        <v>963.823.9016 x98776</v>
-      </c>
-      <c r="H15" t="str">
-        <v>970.502.5279 x88167</v>
-      </c>
-      <c r="I15" t="str">
-        <v>1-440-208-3459 x306</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Denis</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Roberts</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="str">
-        <v>Lera_Hoeger@gmail.com</v>
-      </c>
-      <c r="G16" t="str">
-        <v>1-675-471-4958 x249</v>
-      </c>
-      <c r="H16" t="str">
-        <v>469.706.5463 x991</v>
-      </c>
-      <c r="I16" t="str">
-        <v>1-522-572-0790</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Madison</v>
-      </c>
-      <c r="D17" t="str">
-        <v>Cole</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="str">
-        <v>Lance.Boyer48@yahoo.com</v>
-      </c>
-      <c r="G17" t="str">
-        <v>1-542-598-7267</v>
-      </c>
-      <c r="H17" t="str">
-        <v>(940) 833-1912 x6425</v>
-      </c>
-      <c r="I17" t="str">
-        <v>677-308-0431 x70916</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Harley</v>
-      </c>
-      <c r="D18" t="str">
-        <v>Feeney</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="str">
-        <v>Jayden93@hotmail.com</v>
-      </c>
-      <c r="G18" t="str">
-        <v>440.911.5645 x013</v>
-      </c>
-      <c r="H18" t="str">
-        <v>313.782.0738 x174</v>
-      </c>
-      <c r="I18" t="str">
-        <v>795-354-2415 x412</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Fausto</v>
-      </c>
-      <c r="D19" t="str">
-        <v>West</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="str">
-        <v>Myrtis85@gmail.com</v>
-      </c>
-      <c r="G19" t="str">
-        <v>1-493-200-3051 x833</v>
-      </c>
-      <c r="H19" t="str">
-        <v>718-894-4045 x96005</v>
-      </c>
-      <c r="I19" t="str">
-        <v>1-489-283-4842</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Aaliyah</v>
-      </c>
-      <c r="D20" t="str">
-        <v>Stokes</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="str">
-        <v>Cassandre.Hickle@gmail.com</v>
-      </c>
-      <c r="G20" t="str">
-        <v>(544) 491-2641 x7105</v>
-      </c>
-      <c r="H20" t="str">
-        <v>475.576.4434</v>
-      </c>
-      <c r="I20" t="str">
-        <v>909.917.3224 x81413</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>9</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Carol</v>
-      </c>
-      <c r="D21" t="str">
-        <v>Kozey</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="str">
-        <v>Darien.Koepp@gmail.com</v>
-      </c>
-      <c r="G21" t="str">
-        <v>1-815-328-4629 x726</v>
-      </c>
-      <c r="H21" t="str">
-        <v>800.444.0274 x8399</v>
-      </c>
-      <c r="I21" t="str">
-        <v>237.296.4200 x22970</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>9</v>
-      </c>
-      <c r="C22" t="str">
-        <v>Josianne</v>
-      </c>
-      <c r="D22" t="str">
-        <v>Gleason</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="str">
-        <v>Edwardo95@hotmail.com</v>
-      </c>
-      <c r="G22" t="str">
-        <v>1-567-754-9295 x756</v>
-      </c>
-      <c r="H22" t="str">
-        <v>740.612.8914 x56500</v>
-      </c>
-      <c r="I22" t="str">
-        <v>759-202-5314 x988</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23" t="str">
-        <v>Leone</v>
-      </c>
-      <c r="D23" t="str">
-        <v>Pacocha</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="str">
-        <v>Rosemary.Olson35@gmail.com</v>
-      </c>
-      <c r="G23" t="str">
-        <v>284.631.9133 x4567</v>
-      </c>
-      <c r="H23" t="str">
-        <v>465.933.4716 x574</v>
-      </c>
-      <c r="I23" t="str">
-        <v>1-769-692-7594 x6416</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24" t="str">
-        <v>Lon</v>
-      </c>
-      <c r="D24" t="str">
-        <v>Blick</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="str">
-        <v>Kenny_Moen@yahoo.com</v>
-      </c>
-      <c r="G24" t="str">
-        <v>590.472.7365 x7264</v>
-      </c>
-      <c r="H24" t="str">
-        <v>522-562-8941 x82068</v>
-      </c>
-      <c r="I24" t="str">
-        <v>790.759.0294 x6924</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E15"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>contactId</v>
+      </c>
+      <c r="B1" t="str">
+        <v>occupantId</v>
+      </c>
+      <c r="C1" t="str">
+        <v>type</v>
+      </c>
+      <c r="D1" t="str">
+        <v>label</v>
+      </c>
+      <c r="E1" t="str">
+        <v>value</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>EMAIL</v>
+      </c>
+      <c r="D2" t="str">
+        <v>email</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Juwan.Ortiz@gmail.com</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D3" t="str">
+        <v>home</v>
+      </c>
+      <c r="E3" t="str">
+        <v>(640)997-6348</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D4" t="str">
+        <v>work</v>
+      </c>
+      <c r="E4" t="str">
+        <v>(312)980-5887</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D5" t="str">
+        <v>cell</v>
+      </c>
+      <c r="E5" t="str">
+        <v>(831)948-1493</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="str">
+        <v>EMAIL</v>
+      </c>
+      <c r="D6" t="str">
+        <v>email</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Rachel_Waelchi52@yahoo.com</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D7" t="str">
+        <v>home</v>
+      </c>
+      <c r="E7" t="str">
+        <v>(129)545-1816</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D8" t="str">
+        <v>work</v>
+      </c>
+      <c r="E8" t="str">
+        <v>(507)010-9985</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D9" t="str">
+        <v>cell</v>
+      </c>
+      <c r="E9" t="str">
+        <v>(175)865-5075</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="str">
+        <v>EMAIL</v>
+      </c>
+      <c r="D10" t="str">
+        <v>email</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Jeremy.Homenick50@yahoo.com</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D11" t="str">
+        <v>home</v>
+      </c>
+      <c r="E11" t="str">
+        <v>(416)296-4381</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D12" t="str">
+        <v>work</v>
+      </c>
+      <c r="E12" t="str">
+        <v>(114)628-3457</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D13" t="str">
+        <v>cell</v>
+      </c>
+      <c r="E13" t="str">
+        <v>(651)873-6007</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="str">
+        <v>EMAIL</v>
+      </c>
+      <c r="D14" t="str">
+        <v>email</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Abigail_Kirlin@gmail.com</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D15" t="str">
+        <v>home</v>
+      </c>
+      <c r="E15" t="str">
+        <v>(543)070-1843</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D16" t="str">
+        <v>work</v>
+      </c>
+      <c r="E16" t="str">
+        <v>(788)352-4553</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D17" t="str">
+        <v>cell</v>
+      </c>
+      <c r="E17" t="str">
+        <v>(380)503-9146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="str">
+        <v>EMAIL</v>
+      </c>
+      <c r="D18" t="str">
+        <v>email</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Zackary_Raynor@gmail.com</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D19" t="str">
+        <v>home</v>
+      </c>
+      <c r="E19" t="str">
+        <v>(576)446-0334</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D20" t="str">
+        <v>work</v>
+      </c>
+      <c r="E20" t="str">
+        <v>(025)444-9106</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D21" t="str">
+        <v>cell</v>
+      </c>
+      <c r="E21" t="str">
+        <v>(802)409-3818</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="str">
+        <v>EMAIL</v>
+      </c>
+      <c r="D22" t="str">
+        <v>email</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Fausto57@yahoo.com</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D23" t="str">
+        <v>home</v>
+      </c>
+      <c r="E23" t="str">
+        <v>(329)058-9900</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D24" t="str">
+        <v>work</v>
+      </c>
+      <c r="E24" t="str">
+        <v>(807)733-0922</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D25" t="str">
+        <v>cell</v>
+      </c>
+      <c r="E25" t="str">
+        <v>(469)126-2709</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26" t="str">
+        <v>EMAIL</v>
+      </c>
+      <c r="D26" t="str">
+        <v>email</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Tiffany.Reynolds@yahoo.com</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D27" t="str">
+        <v>home</v>
+      </c>
+      <c r="E27" t="str">
+        <v>(230)652-5655</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D28" t="str">
+        <v>work</v>
+      </c>
+      <c r="E28" t="str">
+        <v>(009)565-3419</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D29" t="str">
+        <v>cell</v>
+      </c>
+      <c r="E29" t="str">
+        <v>(472)354-3274</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30" t="str">
+        <v>EMAIL</v>
+      </c>
+      <c r="D30" t="str">
+        <v>email</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Yazmin_Klocko74@gmail.com</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D31" t="str">
+        <v>home</v>
+      </c>
+      <c r="E31" t="str">
+        <v>(090)419-3439</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D32" t="str">
+        <v>work</v>
+      </c>
+      <c r="E32" t="str">
+        <v>(727)015-9086</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D33" t="str">
+        <v>cell</v>
+      </c>
+      <c r="E33" t="str">
+        <v>(081)765-3402</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34" t="str">
+        <v>EMAIL</v>
+      </c>
+      <c r="D34" t="str">
+        <v>email</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Gregorio.Trantow@hotmail.com</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D35" t="str">
+        <v>home</v>
+      </c>
+      <c r="E35" t="str">
+        <v>(900)253-4479</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D36" t="str">
+        <v>work</v>
+      </c>
+      <c r="E36" t="str">
+        <v>(211)370-6759</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D37" t="str">
+        <v>cell</v>
+      </c>
+      <c r="E37" t="str">
+        <v>(309)108-7362</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" t="str">
+        <v>EMAIL</v>
+      </c>
+      <c r="D38" t="str">
+        <v>email</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Litzy.Macejkovic8@hotmail.com</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D39" t="str">
+        <v>home</v>
+      </c>
+      <c r="E39" t="str">
+        <v>(621)054-0647</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D40" t="str">
+        <v>work</v>
+      </c>
+      <c r="E40" t="str">
+        <v>(334)040-0833</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D41" t="str">
+        <v>cell</v>
+      </c>
+      <c r="E41" t="str">
+        <v>(452)825-3138</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42" t="str">
+        <v>EMAIL</v>
+      </c>
+      <c r="D42" t="str">
+        <v>email</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Rod.Prohaska@gmail.com</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D43" t="str">
+        <v>home</v>
+      </c>
+      <c r="E43" t="str">
+        <v>(096)883-0405</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D44" t="str">
+        <v>work</v>
+      </c>
+      <c r="E44" t="str">
+        <v>(262)392-1929</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D45" t="str">
+        <v>cell</v>
+      </c>
+      <c r="E45" t="str">
+        <v>(755)804-3191</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46" t="str">
+        <v>EMAIL</v>
+      </c>
+      <c r="D46" t="str">
+        <v>email</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Elmo.Harber@gmail.com</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D47" t="str">
+        <v>home</v>
+      </c>
+      <c r="E47" t="str">
+        <v>(410)491-9444</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D48" t="str">
+        <v>work</v>
+      </c>
+      <c r="E48" t="str">
+        <v>(154)024-4387</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D49" t="str">
+        <v>cell</v>
+      </c>
+      <c r="E49" t="str">
+        <v>(483)690-7788</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50" t="str">
+        <v>EMAIL</v>
+      </c>
+      <c r="D50" t="str">
+        <v>email</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Brook_Breitenberg81@gmail.com</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>13</v>
+      </c>
+      <c r="C51" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D51" t="str">
+        <v>home</v>
+      </c>
+      <c r="E51" t="str">
+        <v>(400)824-2074</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>13</v>
+      </c>
+      <c r="C52" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D52" t="str">
+        <v>work</v>
+      </c>
+      <c r="E52" t="str">
+        <v>(177)109-6622</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D53" t="str">
+        <v>cell</v>
+      </c>
+      <c r="E53" t="str">
+        <v>(794)319-9156</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54" t="str">
+        <v>EMAIL</v>
+      </c>
+      <c r="D54" t="str">
+        <v>email</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Avery.Langworth72@hotmail.com</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>14</v>
+      </c>
+      <c r="C55" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D55" t="str">
+        <v>home</v>
+      </c>
+      <c r="E55" t="str">
+        <v>(611)721-4319</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>14</v>
+      </c>
+      <c r="C56" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D56" t="str">
+        <v>work</v>
+      </c>
+      <c r="E56" t="str">
+        <v>(851)875-8792</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57" t="str">
+        <v>PHONE</v>
+      </c>
+      <c r="D57" t="str">
+        <v>cell</v>
+      </c>
+      <c r="E57" t="str">
+        <v>(391)348-3016</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E57"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -1547,15 +2083,6 @@
         <v>2025</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="str">
-        <v>cheque</v>
-      </c>
-      <c r="F2" t="str">
-        <v>14</v>
-      </c>
-      <c r="G2">
         <v>0</v>
       </c>
     </row>
@@ -1570,7 +2097,16 @@
         <v>2024</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="str">
+        <v>cash</v>
+      </c>
+      <c r="F3" t="str">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1584,6 +2120,15 @@
         <v>2023</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>cash</v>
+      </c>
+      <c r="F4" t="str">
+        <v>13</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
     </row>
@@ -1598,15 +2143,6 @@
         <v>2022</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="str">
-        <v>cheque</v>
-      </c>
-      <c r="F5" t="str">
-        <v>11</v>
-      </c>
-      <c r="G5">
         <v>0</v>
       </c>
     </row>
@@ -1635,15 +2171,6 @@
         <v>2024</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="str">
-        <v>cheque</v>
-      </c>
-      <c r="F7" t="str">
-        <v>10</v>
-      </c>
-      <c r="G7">
         <v>0</v>
       </c>
     </row>
@@ -1672,16 +2199,7 @@
         <v>2022</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="str">
-        <v>e-transfer</v>
-      </c>
-      <c r="F9" t="str">
-        <v>20</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1695,15 +2213,6 @@
         <v>2025</v>
       </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="str">
-        <v>cheque</v>
-      </c>
-      <c r="F10" t="str">
-        <v>13</v>
-      </c>
-      <c r="G10">
         <v>0</v>
       </c>
     </row>
@@ -1718,7 +2227,16 @@
         <v>2024</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <v>cash</v>
+      </c>
+      <c r="F11" t="str">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1732,15 +2250,6 @@
         <v>2023</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="str">
-        <v>cash</v>
-      </c>
-      <c r="F12" t="str">
-        <v>17</v>
-      </c>
-      <c r="G12">
         <v>0</v>
       </c>
     </row>
@@ -1758,10 +2267,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="str">
-        <v>cash</v>
+        <v>e-transfer</v>
       </c>
       <c r="F13" t="str">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1784,7 +2293,7 @@
         <v>cash</v>
       </c>
       <c r="F14" t="str">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1818,10 +2327,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="str">
-        <v>cash</v>
+        <v>e-transfer</v>
       </c>
       <c r="F16" t="str">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1838,15 +2347,6 @@
         <v>2022</v>
       </c>
       <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="str">
-        <v>e-transfer</v>
-      </c>
-      <c r="F17" t="str">
-        <v>12</v>
-      </c>
-      <c r="G17">
         <v>0</v>
       </c>
     </row>
@@ -1864,13 +2364,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="str">
-        <v>cheque</v>
+        <v>cash</v>
       </c>
       <c r="F18" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1884,7 +2384,16 @@
         <v>2024</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E19" t="str">
+        <v>cheque</v>
+      </c>
+      <c r="F19" t="str">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1898,7 +2407,16 @@
         <v>2023</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E20" t="str">
+        <v>e-transfer</v>
+      </c>
+      <c r="F20" t="str">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1912,16 +2430,7 @@
         <v>2022</v>
       </c>
       <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="str">
-        <v>cash</v>
-      </c>
-      <c r="F21" t="str">
-        <v>19</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1938,13 +2447,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="str">
-        <v>cheque</v>
+        <v>e-transfer</v>
       </c>
       <c r="F22" t="str">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1961,13 +2470,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="str">
-        <v>cash</v>
+        <v>cheque</v>
       </c>
       <c r="F23" t="str">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1981,16 +2490,7 @@
         <v>2023</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="str">
-        <v>e-transfer</v>
-      </c>
-      <c r="F24" t="str">
-        <v>13</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2004,15 +2504,6 @@
         <v>2022</v>
       </c>
       <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="str">
-        <v>e-transfer</v>
-      </c>
-      <c r="F25" t="str">
-        <v>14</v>
-      </c>
-      <c r="G25">
         <v>0</v>
       </c>
     </row>
@@ -2044,13 +2535,13 @@
         <v>1</v>
       </c>
       <c r="E27" t="str">
-        <v>cheque</v>
+        <v>cash</v>
       </c>
       <c r="F27" t="str">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2078,7 +2569,16 @@
         <v>2022</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E29" t="str">
+        <v>e-transfer</v>
+      </c>
+      <c r="F29" t="str">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2098,7 +2598,7 @@
         <v>e-transfer</v>
       </c>
       <c r="F30" t="str">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2115,6 +2615,15 @@
         <v>2024</v>
       </c>
       <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="str">
+        <v>cheque</v>
+      </c>
+      <c r="F31" t="str">
+        <v>15</v>
+      </c>
+      <c r="G31">
         <v>0</v>
       </c>
     </row>
@@ -2132,10 +2641,10 @@
         <v>1</v>
       </c>
       <c r="E32" t="str">
-        <v>e-transfer</v>
+        <v>cheque</v>
       </c>
       <c r="F32" t="str">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -2158,10 +2667,10 @@
         <v>e-transfer</v>
       </c>
       <c r="F33" t="str">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2175,15 +2684,6 @@
         <v>2025</v>
       </c>
       <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="str">
-        <v>e-transfer</v>
-      </c>
-      <c r="F34" t="str">
-        <v>14</v>
-      </c>
-      <c r="G34">
         <v>0</v>
       </c>
     </row>
@@ -2198,6 +2698,15 @@
         <v>2024</v>
       </c>
       <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="str">
+        <v>cash</v>
+      </c>
+      <c r="F35" t="str">
+        <v>16</v>
+      </c>
+      <c r="G35">
         <v>0</v>
       </c>
     </row>
@@ -2229,13 +2738,13 @@
         <v>1</v>
       </c>
       <c r="E37" t="str">
-        <v>cheque</v>
+        <v>cash</v>
       </c>
       <c r="F37" t="str">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2255,7 +2764,7 @@
         <v>cheque</v>
       </c>
       <c r="F38" t="str">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2286,16 +2795,7 @@
         <v>2023</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="str">
-        <v>cash</v>
-      </c>
-      <c r="F40" t="str">
-        <v>16</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2309,7 +2809,16 @@
         <v>2022</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E41" t="str">
+        <v>e-transfer</v>
+      </c>
+      <c r="F41" t="str">
+        <v>16</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2319,9 +2828,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2345,13 +2854,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="str">
-        <v>Town Hall</v>
+        <v>Clean-Up</v>
       </c>
       <c r="D2" t="str">
-        <v>2025-10-17T00:00:00.000Z</v>
+        <v>2024-01-02T00:00:00.000Z</v>
       </c>
     </row>
     <row r="3">
@@ -2359,13 +2868,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="str">
-        <v>Town Planning Night</v>
+        <v>Community Forum</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-05-04T00:00:00.000Z</v>
+        <v>2024-03-14T00:00:00.000Z</v>
       </c>
     </row>
     <row r="4">
@@ -2373,13 +2882,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="str">
-        <v>Clean-Up</v>
+        <v>Community Forum</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-06-06T00:00:00.000Z</v>
+        <v>2023-10-20T00:00:00.000Z</v>
       </c>
     </row>
     <row r="5">
@@ -2387,13 +2896,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="str">
-        <v>Community Forum</v>
+        <v>Town Planning Night</v>
       </c>
       <c r="D5" t="str">
-        <v>2025-05-15T00:00:00.000Z</v>
+        <v>2023-03-05T00:00:00.000Z</v>
       </c>
     </row>
     <row r="6">
@@ -2401,13 +2910,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="str">
-        <v>Clean-Up</v>
+        <v>Town Hall</v>
       </c>
       <c r="D6" t="str">
-        <v>2022-10-24T00:00:00.000Z</v>
+        <v>2023-11-13T00:00:00.000Z</v>
       </c>
     </row>
     <row r="7">
@@ -2415,13 +2924,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="str">
-        <v>Town Hall</v>
+        <v>Clean-Up</v>
       </c>
       <c r="D7" t="str">
-        <v>2024-01-20T00:00:00.000Z</v>
+        <v>2023-04-22T00:00:00.000Z</v>
       </c>
     </row>
     <row r="8">
@@ -2429,13 +2938,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="str">
-        <v>Clean-Up</v>
+        <v>Meet &amp; Greet</v>
       </c>
       <c r="D8" t="str">
-        <v>2024-03-18T00:00:00.000Z</v>
+        <v>2023-02-02T00:00:00.000Z</v>
       </c>
     </row>
     <row r="9">
@@ -2443,13 +2952,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9" t="str">
-        <v>Membership Form</v>
+        <v>Meet &amp; Greet</v>
       </c>
       <c r="D9" t="str">
-        <v>2024-10-27T00:00:00.000Z</v>
+        <v>2024-05-19T00:00:00.000Z</v>
       </c>
     </row>
     <row r="10">
@@ -2457,13 +2966,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="str">
-        <v>Clean-Up</v>
+        <v>Town Hall</v>
       </c>
       <c r="D10" t="str">
-        <v>2022-01-10T00:00:00.000Z</v>
+        <v>2024-05-07T00:00:00.000Z</v>
       </c>
     </row>
     <row r="11">
@@ -2471,13 +2980,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" t="str">
-        <v>Meet &amp; Greet</v>
+        <v>Membership Form</v>
       </c>
       <c r="D11" t="str">
-        <v>2022-06-20T00:00:00.000Z</v>
+        <v>2024-09-24T00:00:00.000Z</v>
       </c>
     </row>
     <row r="12">
@@ -2485,13 +2994,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" t="str">
-        <v>Town Planning Night</v>
+        <v>Community Forum</v>
       </c>
       <c r="D12" t="str">
-        <v>2022-02-08T00:00:00.000Z</v>
+        <v>2024-08-30T00:00:00.000Z</v>
       </c>
     </row>
     <row r="13">
@@ -2499,13 +3008,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" t="str">
-        <v>Community Forum</v>
+        <v>Clean-Up</v>
       </c>
       <c r="D13" t="str">
-        <v>2022-05-05T00:00:00.000Z</v>
+        <v>2024-02-29T00:00:00.000Z</v>
       </c>
     </row>
     <row r="14">
@@ -2513,13 +3022,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" t="str">
-        <v>Membership Form</v>
+        <v>Town Hall</v>
       </c>
       <c r="D14" t="str">
-        <v>2022-09-28T00:00:00.000Z</v>
+        <v>2022-08-01T00:00:00.000Z</v>
       </c>
     </row>
     <row r="15">
@@ -2527,13 +3036,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C15" t="str">
-        <v>Town Planning Night</v>
+        <v>Meet &amp; Greet</v>
       </c>
       <c r="D15" t="str">
-        <v>2025-08-08T00:00:00.000Z</v>
+        <v>2025-05-03T00:00:00.000Z</v>
       </c>
     </row>
     <row r="16">
@@ -2541,13 +3050,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C16" t="str">
         <v>Membership Form</v>
       </c>
       <c r="D16" t="str">
-        <v>2025-02-14T00:00:00.000Z</v>
+        <v>2025-06-09T00:00:00.000Z</v>
       </c>
     </row>
     <row r="17">
@@ -2555,13 +3064,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17" t="str">
-        <v>Membership Form</v>
+        <v>Town Planning Night</v>
       </c>
       <c r="D17" t="str">
-        <v>2023-03-23T00:00:00.000Z</v>
+        <v>2025-02-02T00:00:00.000Z</v>
       </c>
     </row>
     <row r="18">
@@ -2569,13 +3078,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C18" t="str">
-        <v>Community Forum</v>
+        <v>Town Planning Night</v>
       </c>
       <c r="D18" t="str">
-        <v>2023-07-14T00:00:00.000Z</v>
+        <v>2023-03-15T00:00:00.000Z</v>
       </c>
     </row>
     <row r="19">
@@ -2583,13 +3092,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C19" t="str">
-        <v>Town Planning Night</v>
+        <v>Town Hall</v>
       </c>
       <c r="D19" t="str">
-        <v>2022-06-02T00:00:00.000Z</v>
+        <v>2023-11-19T00:00:00.000Z</v>
       </c>
     </row>
     <row r="20">
@@ -2597,13 +3106,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" t="str">
-        <v>Membership Form</v>
+        <v>Clean-Up</v>
       </c>
       <c r="D20" t="str">
-        <v>2022-05-28T00:00:00.000Z</v>
+        <v>2023-12-11T00:00:00.000Z</v>
       </c>
     </row>
     <row r="21">
@@ -2611,13 +3120,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C21" t="str">
-        <v>Community Forum</v>
+        <v>Meet &amp; Greet</v>
       </c>
       <c r="D21" t="str">
-        <v>2022-01-19T00:00:00.000Z</v>
+        <v>2023-06-01T00:00:00.000Z</v>
       </c>
     </row>
     <row r="22">
@@ -2625,13 +3134,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C22" t="str">
-        <v>Town Hall</v>
+        <v>Meet &amp; Greet</v>
       </c>
       <c r="D22" t="str">
-        <v>2022-04-01T00:00:00.000Z</v>
+        <v>2025-09-20T00:00:00.000Z</v>
       </c>
     </row>
     <row r="23">
@@ -2639,13 +3148,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C23" t="str">
         <v>Clean-Up</v>
       </c>
       <c r="D23" t="str">
-        <v>2025-08-17T00:00:00.000Z</v>
+        <v>2025-08-14T00:00:00.000Z</v>
       </c>
     </row>
     <row r="24">
@@ -2653,13 +3162,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C24" t="str">
-        <v>Meet &amp; Greet</v>
+        <v>Town Planning Night</v>
       </c>
       <c r="D24" t="str">
-        <v>2025-01-16T00:00:00.000Z</v>
+        <v>2025-09-28T00:00:00.000Z</v>
       </c>
     </row>
     <row r="25">
@@ -2667,13 +3176,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C25" t="str">
-        <v>Town Planning Night</v>
+        <v>Membership Form</v>
       </c>
       <c r="D25" t="str">
-        <v>2025-02-13T00:00:00.000Z</v>
+        <v>2025-11-19T00:00:00.000Z</v>
       </c>
     </row>
     <row r="26">
@@ -2681,13 +3190,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C26" t="str">
-        <v>Town Hall</v>
+        <v>Community Forum</v>
       </c>
       <c r="D26" t="str">
-        <v>2025-11-15T00:00:00.000Z</v>
+        <v>2024-09-15T00:00:00.000Z</v>
       </c>
     </row>
     <row r="27">
@@ -2695,13 +3204,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C27" t="str">
-        <v>Membership Form</v>
+        <v>Town Planning Night</v>
       </c>
       <c r="D27" t="str">
-        <v>2025-05-15T00:00:00.000Z</v>
+        <v>2023-02-06T00:00:00.000Z</v>
       </c>
     </row>
     <row r="28">
@@ -2709,13 +3218,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C28" t="str">
         <v>Town Hall</v>
       </c>
       <c r="D28" t="str">
-        <v>2023-08-16T00:00:00.000Z</v>
+        <v>2025-03-12T00:00:00.000Z</v>
       </c>
     </row>
     <row r="29">
@@ -2723,13 +3232,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C29" t="str">
-        <v>Community Forum</v>
+        <v>Membership Form</v>
       </c>
       <c r="D29" t="str">
-        <v>2023-02-03T00:00:00.000Z</v>
+        <v>2024-12-30T00:00:00.000Z</v>
       </c>
     </row>
     <row r="30">
@@ -2737,13 +3246,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C30" t="str">
-        <v>Town Planning Night</v>
+        <v>Town Hall</v>
       </c>
       <c r="D30" t="str">
-        <v>2023-10-29T00:00:00.000Z</v>
+        <v>2024-11-27T00:00:00.000Z</v>
       </c>
     </row>
     <row r="31">
@@ -2751,13 +3260,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C31" t="str">
-        <v>Meet &amp; Greet</v>
+        <v>Town Hall</v>
       </c>
       <c r="D31" t="str">
-        <v>2023-12-28T00:00:00.000Z</v>
+        <v>2024-01-20T00:00:00.000Z</v>
       </c>
     </row>
     <row r="32">
@@ -2765,13 +3274,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C32" t="str">
         <v>Meet &amp; Greet</v>
       </c>
       <c r="D32" t="str">
-        <v>2022-03-05T00:00:00.000Z</v>
+        <v>2024-05-01T00:00:00.000Z</v>
       </c>
     </row>
     <row r="33">
@@ -2779,13 +3288,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C33" t="str">
-        <v>Community Forum</v>
+        <v>Membership Form</v>
       </c>
       <c r="D33" t="str">
-        <v>2022-12-09T00:00:00.000Z</v>
+        <v>2024-02-10T00:00:00.000Z</v>
       </c>
     </row>
     <row r="34">
@@ -2793,13 +3302,13 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C34" t="str">
-        <v>Membership Form</v>
+        <v>Clean-Up</v>
       </c>
       <c r="D34" t="str">
-        <v>2022-02-10T00:00:00.000Z</v>
+        <v>2024-11-18T00:00:00.000Z</v>
       </c>
     </row>
     <row r="35">
@@ -2807,13 +3316,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C35" t="str">
-        <v>Meet &amp; Greet</v>
+        <v>Community Forum</v>
       </c>
       <c r="D35" t="str">
-        <v>2025-08-13T00:00:00.000Z</v>
+        <v>2024-12-12T00:00:00.000Z</v>
       </c>
     </row>
     <row r="36">
@@ -2821,13 +3330,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C36" t="str">
-        <v>Town Hall</v>
+        <v>Community Forum</v>
       </c>
       <c r="D36" t="str">
-        <v>2025-09-14T00:00:00.000Z</v>
+        <v>2022-04-17T00:00:00.000Z</v>
       </c>
     </row>
     <row r="37">
@@ -2835,13 +3344,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C37" t="str">
-        <v>Town Planning Night</v>
+        <v>Membership Form</v>
       </c>
       <c r="D37" t="str">
-        <v>2025-04-14T00:00:00.000Z</v>
+        <v>2022-02-12T00:00:00.000Z</v>
       </c>
     </row>
     <row r="38">
@@ -2849,13 +3358,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C38" t="str">
-        <v>Community Forum</v>
+        <v>Town Hall</v>
       </c>
       <c r="D38" t="str">
-        <v>2025-11-06T00:00:00.000Z</v>
+        <v>2025-02-09T00:00:00.000Z</v>
       </c>
     </row>
     <row r="39">
@@ -2863,13 +3372,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C39" t="str">
-        <v>Membership Form</v>
+        <v>Clean-Up</v>
       </c>
       <c r="D39" t="str">
-        <v>2025-03-19T00:00:00.000Z</v>
+        <v>2025-08-10T00:00:00.000Z</v>
       </c>
     </row>
     <row r="40">
@@ -2877,13 +3386,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C40" t="str">
         <v>Membership Form</v>
       </c>
       <c r="D40" t="str">
-        <v>2022-01-25T00:00:00.000Z</v>
+        <v>2025-05-19T00:00:00.000Z</v>
       </c>
     </row>
     <row r="41">
@@ -2891,13 +3400,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C41" t="str">
-        <v>Meet &amp; Greet</v>
+        <v>Community Forum</v>
       </c>
       <c r="D41" t="str">
-        <v>2022-06-29T00:00:00.000Z</v>
+        <v>2025-06-07T00:00:00.000Z</v>
       </c>
     </row>
     <row r="42">
@@ -2905,13 +3414,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C42" t="str">
         <v>Town Planning Night</v>
       </c>
       <c r="D42" t="str">
-        <v>2022-09-01T00:00:00.000Z</v>
+        <v>2025-08-25T00:00:00.000Z</v>
       </c>
     </row>
     <row r="43">
@@ -2919,13 +3428,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C43" t="str">
-        <v>Clean-Up</v>
+        <v>Membership Form</v>
       </c>
       <c r="D43" t="str">
-        <v>2022-08-21T00:00:00.000Z</v>
+        <v>2024-12-28T00:00:00.000Z</v>
       </c>
     </row>
     <row r="44">
@@ -2933,13 +3442,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C44" t="str">
-        <v>Town Hall</v>
+        <v>Town Planning Night</v>
       </c>
       <c r="D44" t="str">
-        <v>2022-10-14T00:00:00.000Z</v>
+        <v>2024-06-07T00:00:00.000Z</v>
       </c>
     </row>
     <row r="45">
@@ -2947,13 +3456,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C45" t="str">
-        <v>Meet &amp; Greet</v>
+        <v>Clean-Up</v>
       </c>
       <c r="D45" t="str">
-        <v>2025-07-07T00:00:00.000Z</v>
+        <v>2024-03-15T00:00:00.000Z</v>
       </c>
     </row>
     <row r="46">
@@ -2961,13 +3470,13 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C46" t="str">
-        <v>Town Planning Night</v>
+        <v>Town Hall</v>
       </c>
       <c r="D46" t="str">
-        <v>2025-03-21T00:00:00.000Z</v>
+        <v>2024-08-08T00:00:00.000Z</v>
       </c>
     </row>
     <row r="47">
@@ -2975,13 +3484,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C47" t="str">
-        <v>Meet &amp; Greet</v>
+        <v>Membership Form</v>
       </c>
       <c r="D47" t="str">
-        <v>2024-07-20T00:00:00.000Z</v>
+        <v>2023-06-21T00:00:00.000Z</v>
       </c>
     </row>
     <row r="48">
@@ -2989,13 +3498,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C48" t="str">
-        <v>Clean-Up</v>
+        <v>Community Forum</v>
       </c>
       <c r="D48" t="str">
-        <v>2024-11-07T00:00:00.000Z</v>
+        <v>2022-02-26T00:00:00.000Z</v>
       </c>
     </row>
     <row r="49">
@@ -3003,13 +3512,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C49" t="str">
         <v>Town Hall</v>
       </c>
       <c r="D49" t="str">
-        <v>2024-08-05T00:00:00.000Z</v>
+        <v>2024-09-15T00:00:00.000Z</v>
       </c>
     </row>
     <row r="50">
@@ -3017,13 +3526,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C50" t="str">
         <v>Town Planning Night</v>
       </c>
       <c r="D50" t="str">
-        <v>2024-08-04T00:00:00.000Z</v>
+        <v>2024-11-03T00:00:00.000Z</v>
       </c>
     </row>
     <row r="51">
@@ -3031,13 +3540,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C51" t="str">
         <v>Community Forum</v>
       </c>
       <c r="D51" t="str">
-        <v>2024-07-08T00:00:00.000Z</v>
+        <v>2024-08-02T00:00:00.000Z</v>
       </c>
     </row>
     <row r="52">
@@ -3045,13 +3554,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C52" t="str">
-        <v>Town Hall</v>
+        <v>Meet &amp; Greet</v>
       </c>
       <c r="D52" t="str">
-        <v>2023-08-09T00:00:00.000Z</v>
+        <v>2024-04-26T00:00:00.000Z</v>
       </c>
     </row>
     <row r="53">
@@ -3059,13 +3568,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C53" t="str">
-        <v>Town Hall</v>
+        <v>Town Planning Night</v>
       </c>
       <c r="D53" t="str">
-        <v>2022-10-26T00:00:00.000Z</v>
+        <v>2022-08-09T00:00:00.000Z</v>
       </c>
     </row>
     <row r="54">
@@ -3073,13 +3582,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C54" t="str">
-        <v>Meet &amp; Greet</v>
+        <v>Town Hall</v>
       </c>
       <c r="D54" t="str">
-        <v>2024-07-03T00:00:00.000Z</v>
+        <v>2022-03-11T00:00:00.000Z</v>
       </c>
     </row>
     <row r="55">
@@ -3087,13 +3596,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C55" t="str">
-        <v>Meet &amp; Greet</v>
+        <v>Membership Form</v>
       </c>
       <c r="D55" t="str">
-        <v>2025-03-15T00:00:00.000Z</v>
+        <v>2025-10-04T00:00:00.000Z</v>
       </c>
     </row>
     <row r="56">
@@ -3101,13 +3610,13 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C56" t="str">
-        <v>Clean-Up</v>
+        <v>Community Forum</v>
       </c>
       <c r="D56" t="str">
-        <v>2023-01-23T00:00:00.000Z</v>
+        <v>2025-10-14T00:00:00.000Z</v>
       </c>
     </row>
     <row r="57">
@@ -3115,13 +3624,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C57" t="str">
-        <v>Community Forum</v>
+        <v>Town Planning Night</v>
       </c>
       <c r="D57" t="str">
-        <v>2023-07-27T00:00:00.000Z</v>
+        <v>2025-04-25T00:00:00.000Z</v>
       </c>
     </row>
     <row r="58">
@@ -3129,249 +3638,25 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C58" t="str">
-        <v>Membership Form</v>
+        <v>Town Planning Night</v>
       </c>
       <c r="D58" t="str">
-        <v>2023-01-29T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>32</v>
-      </c>
-      <c r="C59" t="str">
-        <v>Meet &amp; Greet</v>
-      </c>
-      <c r="D59" t="str">
-        <v>2022-06-08T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>32</v>
-      </c>
-      <c r="C60" t="str">
-        <v>Clean-Up</v>
-      </c>
-      <c r="D60" t="str">
-        <v>2022-09-02T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>32</v>
-      </c>
-      <c r="C61" t="str">
-        <v>Community Forum</v>
-      </c>
-      <c r="D61" t="str">
-        <v>2022-09-15T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>32</v>
-      </c>
-      <c r="C62" t="str">
-        <v>Town Hall</v>
-      </c>
-      <c r="D62" t="str">
-        <v>2022-11-22T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>32</v>
-      </c>
-      <c r="C63" t="str">
-        <v>Town Planning Night</v>
-      </c>
-      <c r="D63" t="str">
-        <v>2022-04-21T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>33</v>
-      </c>
-      <c r="C64" t="str">
-        <v>Clean-Up</v>
-      </c>
-      <c r="D64" t="str">
-        <v>2025-06-08T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>33</v>
-      </c>
-      <c r="C65" t="str">
-        <v>Town Planning Night</v>
-      </c>
-      <c r="D65" t="str">
-        <v>2025-06-16T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>33</v>
-      </c>
-      <c r="C66" t="str">
-        <v>Community Forum</v>
-      </c>
-      <c r="D66" t="str">
-        <v>2025-08-22T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>33</v>
-      </c>
-      <c r="C67" t="str">
-        <v>Membership Form</v>
-      </c>
-      <c r="D67" t="str">
-        <v>2025-07-05T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>33</v>
-      </c>
-      <c r="C68" t="str">
-        <v>Town Hall</v>
-      </c>
-      <c r="D68" t="str">
-        <v>2025-10-12T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>36</v>
-      </c>
-      <c r="C69" t="str">
-        <v>Clean-Up</v>
-      </c>
-      <c r="D69" t="str">
-        <v>2022-03-02T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>36</v>
-      </c>
-      <c r="C70" t="str">
-        <v>Community Forum</v>
-      </c>
-      <c r="D70" t="str">
-        <v>2022-01-24T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>36</v>
-      </c>
-      <c r="C71" t="str">
-        <v>Membership Form</v>
-      </c>
-      <c r="D71" t="str">
-        <v>2022-11-15T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>37</v>
-      </c>
-      <c r="C72" t="str">
-        <v>Town Planning Night</v>
-      </c>
-      <c r="D72" t="str">
-        <v>2025-11-05T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>37</v>
-      </c>
-      <c r="C73" t="str">
-        <v>Community Forum</v>
-      </c>
-      <c r="D73" t="str">
-        <v>2025-01-14T00:00:00.000Z</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>39</v>
-      </c>
-      <c r="C74" t="str">
-        <v>Clean-Up</v>
-      </c>
-      <c r="D74" t="str">
-        <v>2023-05-04T00:00:00.000Z</v>
+        <v>2022-01-20T00:00:00.000Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D74"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D58"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3407,7 +3692,7 @@
         <v>Snack</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E2" t="str">
         <v>9</v>
@@ -3421,19 +3706,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="str">
         <v>Meal</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F3" t="str">
-        <v>e-transfer</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="4">
@@ -3441,19 +3726,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="str">
         <v>Coffee</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v>e-transfer</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="5">
@@ -3461,16 +3746,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="str">
-        <v>Snack</v>
+        <v>Coffee</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5" t="str">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" t="str">
         <v>e-transfer</v>
@@ -3481,19 +3766,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="str">
         <v>Coffee</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" t="str">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F6" t="str">
-        <v>e-transfer</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="7">
@@ -3501,16 +3786,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="str">
-        <v>Snack</v>
+        <v>Meal</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="str">
         <v>cash</v>
@@ -3521,19 +3806,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="str">
-        <v>Snack</v>
+        <v>Meal</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" t="str">
-        <v>cash</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="9">
@@ -3541,19 +3826,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="str">
-        <v>Meal</v>
+        <v>Coffee</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="str">
         <v>8</v>
       </c>
       <c r="F9" t="str">
-        <v>cheque</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="10">
@@ -3567,13 +3852,13 @@
         <v>Snack</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" t="str">
-        <v>cash</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="11">
@@ -3581,16 +3866,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="str">
         <v>Snack</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E11" t="str">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" t="str">
         <v>cash</v>
@@ -3601,19 +3886,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C12" t="str">
         <v>Meal</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E12" t="str">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F12" t="str">
-        <v>cheque</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="13">
@@ -3621,19 +3906,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" t="str">
-        <v>Snack</v>
+        <v>Coffee</v>
       </c>
       <c r="D13">
         <v>13</v>
       </c>
       <c r="E13" t="str">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F13" t="str">
-        <v>e-transfer</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="14">
@@ -3641,16 +3926,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" t="str">
         <v>Coffee</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="str">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" t="str">
         <v>e-transfer</v>
@@ -3664,13 +3949,13 @@
         <v>12</v>
       </c>
       <c r="C15" t="str">
-        <v>Coffee</v>
+        <v>Meal</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E15" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="str">
         <v>e-transfer</v>
@@ -3681,16 +3966,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="str">
-        <v>Coffee</v>
+        <v>Snack</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="str">
         <v>e-transfer</v>
@@ -3704,16 +3989,16 @@
         <v>13</v>
       </c>
       <c r="C17" t="str">
-        <v>Snack</v>
+        <v>Coffee</v>
       </c>
       <c r="D17">
         <v>17</v>
       </c>
       <c r="E17" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F17" t="str">
-        <v>cheque</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="18">
@@ -3721,19 +4006,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" t="str">
         <v>Coffee</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E18" t="str">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F18" t="str">
-        <v>e-transfer</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="19">
@@ -3741,19 +4026,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="str">
-        <v>Snack</v>
+        <v>Coffee</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="str">
-        <v>cheque</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="20">
@@ -3761,19 +4046,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" t="str">
-        <v>Snack</v>
+        <v>Meal</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E20" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" t="str">
-        <v>cheque</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="21">
@@ -3784,16 +4069,16 @@
         <v>16</v>
       </c>
       <c r="C21" t="str">
-        <v>Coffee</v>
+        <v>Snack</v>
       </c>
       <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="str">
         <v>9</v>
       </c>
-      <c r="E21" t="str">
-        <v>10</v>
-      </c>
       <c r="F21" t="str">
-        <v>cheque</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="22">
@@ -3801,16 +4086,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C22" t="str">
-        <v>Coffee</v>
+        <v>Snack</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E22" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" t="str">
         <v>cash</v>
@@ -3821,16 +4106,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C23" t="str">
-        <v>Coffee</v>
+        <v>Snack</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E23" t="str">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23" t="str">
         <v>e-transfer</v>
@@ -3841,19 +4126,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C24" t="str">
-        <v>Snack</v>
+        <v>Coffee</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E24" t="str">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F24" t="str">
-        <v>e-transfer</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="25">
@@ -3861,19 +4146,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C25" t="str">
         <v>Coffee</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E25" t="str">
         <v>4</v>
       </c>
       <c r="F25" t="str">
-        <v>cheque</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="26">
@@ -3881,19 +4166,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C26" t="str">
-        <v>Meal</v>
+        <v>Coffee</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E26" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F26" t="str">
-        <v>e-transfer</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="27">
@@ -3901,19 +4186,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C27" t="str">
-        <v>Coffee</v>
+        <v>Meal</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E27" t="str">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F27" t="str">
-        <v>cheque</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="28">
@@ -3921,16 +4206,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C28" t="str">
-        <v>Snack</v>
+        <v>Coffee</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E28" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="str">
         <v>cheque</v>
@@ -3941,19 +4226,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C29" t="str">
-        <v>Snack</v>
+        <v>Meal</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E29" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F29" t="str">
-        <v>cash</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="30">
@@ -3961,19 +4246,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C30" t="str">
-        <v>Coffee</v>
+        <v>Meal</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E30" t="str">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F30" t="str">
-        <v>cheque</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="31">
@@ -3981,19 +4266,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C31" t="str">
-        <v>Coffee</v>
+        <v>Meal</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E31" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="str">
-        <v>cash</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="32">
@@ -4001,7 +4286,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C32" t="str">
         <v>Snack</v>
@@ -4010,10 +4295,10 @@
         <v>6</v>
       </c>
       <c r="E32" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" t="str">
-        <v>cheque</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="33">
@@ -4021,19 +4306,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C33" t="str">
         <v>Meal</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E33" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="str">
-        <v>cheque</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="34">
@@ -4041,19 +4326,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C34" t="str">
-        <v>Coffee</v>
+        <v>Snack</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" t="str">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F34" t="str">
-        <v>cash</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="35">
@@ -4061,19 +4346,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C35" t="str">
         <v>Snack</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E35" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F35" t="str">
-        <v>e-transfer</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="36">
@@ -4081,19 +4366,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C36" t="str">
         <v>Meal</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E36" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" t="str">
-        <v>cheque</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="37">
@@ -4101,19 +4386,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C37" t="str">
-        <v>Meal</v>
+        <v>Coffee</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
       <c r="E37" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="str">
-        <v>cheque</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="38">
@@ -4121,19 +4406,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C38" t="str">
         <v>Coffee</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E38" t="str">
         <v>9</v>
       </c>
       <c r="F38" t="str">
-        <v>cash</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="39">
@@ -4141,16 +4426,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C39" t="str">
-        <v>Coffee</v>
+        <v>Snack</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E39" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F39" t="str">
         <v>cheque</v>
@@ -4161,16 +4446,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C40" t="str">
         <v>Meal</v>
       </c>
       <c r="D40">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E40" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F40" t="str">
         <v>cash</v>
@@ -4181,16 +4466,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C41" t="str">
-        <v>Coffee</v>
+        <v>Snack</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E41" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="str">
         <v>cash</v>
@@ -4201,16 +4486,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C42" t="str">
-        <v>Meal</v>
+        <v>Coffee</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E42" t="str">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F42" t="str">
         <v>cash</v>
@@ -4221,16 +4506,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C43" t="str">
-        <v>Meal</v>
+        <v>Snack</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E43" t="str">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F43" t="str">
         <v>cash</v>
@@ -4241,19 +4526,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C44" t="str">
-        <v>Meal</v>
+        <v>Coffee</v>
       </c>
       <c r="D44">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E44" t="str">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F44" t="str">
-        <v>e-transfer</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="45">
@@ -4261,19 +4546,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C45" t="str">
-        <v>Coffee</v>
+        <v>Meal</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E45" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F45" t="str">
-        <v>cash</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="46">
@@ -4281,19 +4566,19 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C46" t="str">
         <v>Meal</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E46" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="str">
-        <v>e-transfer</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="47">
@@ -4301,19 +4586,19 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C47" t="str">
-        <v>Meal</v>
+        <v>Coffee</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E47" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F47" t="str">
-        <v>cash</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="48">
@@ -4321,16 +4606,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C48" t="str">
         <v>Coffee</v>
       </c>
       <c r="D48">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E48" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F48" t="str">
         <v>cash</v>
@@ -4341,19 +4626,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C49" t="str">
         <v>Snack</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E49" t="str">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F49" t="str">
-        <v>e-transfer</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="50">
@@ -4361,19 +4646,19 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C50" t="str">
-        <v>Snack</v>
+        <v>Meal</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E50" t="str">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F50" t="str">
-        <v>cash</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="51">
@@ -4381,16 +4666,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C51" t="str">
-        <v>Coffee</v>
+        <v>Snack</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E51" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F51" t="str">
         <v>e-transfer</v>
@@ -4401,19 +4686,19 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C52" t="str">
         <v>Coffee</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E52" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F52" t="str">
-        <v>e-transfer</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="53">
@@ -4421,16 +4706,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C53" t="str">
-        <v>Coffee</v>
+        <v>Snack</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E53" t="str">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F53" t="str">
         <v>e-transfer</v>
@@ -4441,16 +4726,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C54" t="str">
         <v>Coffee</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E54" t="str">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F54" t="str">
         <v>e-transfer</v>
@@ -4461,19 +4746,19 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C55" t="str">
         <v>Coffee</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" t="str">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F55" t="str">
-        <v>cheque</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="56">
@@ -4481,19 +4766,19 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C56" t="str">
-        <v>Coffee</v>
+        <v>Snack</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" t="str">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F56" t="str">
-        <v>cheque</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="57">
@@ -4501,16 +4786,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C57" t="str">
         <v>Meal</v>
       </c>
       <c r="D57">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E57" t="str">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F57" t="str">
         <v>e-transfer</v>
@@ -4521,16 +4806,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C58" t="str">
-        <v>Snack</v>
+        <v>Coffee</v>
       </c>
       <c r="D58">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E58" t="str">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F58" t="str">
         <v>cash</v>
@@ -4541,19 +4826,19 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C59" t="str">
-        <v>Meal</v>
+        <v>Coffee</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E59" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F59" t="str">
-        <v>cheque</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="60">
@@ -4561,19 +4846,19 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C60" t="str">
         <v>Meal</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E60" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F60" t="str">
-        <v>e-transfer</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="61">
@@ -4581,7 +4866,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C61" t="str">
         <v>Coffee</v>
@@ -4590,10 +4875,10 @@
         <v>18</v>
       </c>
       <c r="E61" t="str">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F61" t="str">
-        <v>e-transfer</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="62">
@@ -4601,19 +4886,19 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C62" t="str">
-        <v>Coffee</v>
+        <v>Snack</v>
       </c>
       <c r="D62">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62" t="str">
         <v>6</v>
       </c>
       <c r="F62" t="str">
-        <v>cash</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="63">
@@ -4621,19 +4906,19 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C63" t="str">
         <v>Snack</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E63" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F63" t="str">
-        <v>cheque</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="64">
@@ -4641,19 +4926,19 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C64" t="str">
-        <v>Snack</v>
+        <v>Coffee</v>
       </c>
       <c r="D64">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E64" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F64" t="str">
-        <v>cash</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="65">
@@ -4661,19 +4946,19 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C65" t="str">
-        <v>Meal</v>
+        <v>Snack</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E65" t="str">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F65" t="str">
-        <v>cheque</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="66">
@@ -4681,16 +4966,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C66" t="str">
         <v>Coffee</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E66" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F66" t="str">
         <v>cash</v>
@@ -4701,19 +4986,19 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C67" t="str">
-        <v>Meal</v>
+        <v>Snack</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E67" t="str">
         <v>6</v>
       </c>
       <c r="F67" t="str">
-        <v>e-transfer</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="68">
@@ -4721,19 +5006,19 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C68" t="str">
         <v>Meal</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E68" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F68" t="str">
-        <v>e-transfer</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="69">
@@ -4741,19 +5026,19 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C69" t="str">
         <v>Coffee</v>
       </c>
       <c r="D69">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E69" t="str">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F69" t="str">
-        <v>cheque</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="70">
@@ -4761,19 +5046,19 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C70" t="str">
-        <v>Meal</v>
+        <v>Snack</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70" t="str">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F70" t="str">
-        <v>e-transfer</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="71">
@@ -4781,16 +5066,16 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C71" t="str">
         <v>Snack</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E71" t="str">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="str">
         <v>cheque</v>
@@ -4801,19 +5086,19 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C72" t="str">
-        <v>Coffee</v>
+        <v>Snack</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72" t="str">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F72" t="str">
-        <v>e-transfer</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="73">
@@ -4821,16 +5106,16 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C73" t="str">
         <v>Snack</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E73" t="str">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F73" t="str">
         <v>cheque</v>
@@ -4841,19 +5126,19 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C74" t="str">
-        <v>Snack</v>
+        <v>Meal</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E74" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F74" t="str">
-        <v>cheque</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="75">
@@ -4861,19 +5146,19 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C75" t="str">
-        <v>Snack</v>
+        <v>Coffee</v>
       </c>
       <c r="D75">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E75" t="str">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F75" t="str">
-        <v>cash</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="76">
@@ -4881,19 +5166,19 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C76" t="str">
-        <v>Coffee</v>
+        <v>Snack</v>
       </c>
       <c r="D76">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E76" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F76" t="str">
-        <v>cheque</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="77">
@@ -4901,19 +5186,19 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C77" t="str">
-        <v>Snack</v>
+        <v>Coffee</v>
       </c>
       <c r="D77">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E77" t="str">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F77" t="str">
-        <v>e-transfer</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="78">
@@ -4921,19 +5206,19 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C78" t="str">
-        <v>Meal</v>
+        <v>Coffee</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E78" t="str">
         <v>9</v>
       </c>
       <c r="F78" t="str">
-        <v>cheque</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="79">
@@ -4941,13 +5226,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C79" t="str">
-        <v>Snack</v>
+        <v>Meal</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E79" t="str">
         <v>10</v>
@@ -4961,16 +5246,16 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C80" t="str">
         <v>Coffee</v>
       </c>
       <c r="D80">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E80" t="str">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F80" t="str">
         <v>cash</v>
@@ -4981,16 +5266,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C81" t="str">
-        <v>Coffee</v>
+        <v>Meal</v>
       </c>
       <c r="D81">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E81" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F81" t="str">
         <v>e-transfer</v>
@@ -5001,19 +5286,19 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" t="str">
         <v>Meal</v>
       </c>
       <c r="D82">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E82" t="str">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F82" t="str">
-        <v>cheque</v>
+        <v>e-transfer</v>
       </c>
     </row>
     <row r="83">
@@ -5021,19 +5306,19 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C83" t="str">
-        <v>Coffee</v>
+        <v>Snack</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E83" t="str">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F83" t="str">
-        <v>e-transfer</v>
+        <v>cash</v>
       </c>
     </row>
     <row r="84">
@@ -5041,16 +5326,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C84" t="str">
         <v>Snack</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E84" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F84" t="str">
         <v>e-transfer</v>
@@ -5061,19 +5346,19 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C85" t="str">
-        <v>Snack</v>
+        <v>Coffee</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E85" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="str">
-        <v>e-transfer</v>
+        <v>cheque</v>
       </c>
     </row>
     <row r="86">
@@ -5081,16 +5366,16 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C86" t="str">
-        <v>Meal</v>
+        <v>Coffee</v>
       </c>
       <c r="D86">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E86" t="str">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F86" t="str">
         <v>e-transfer</v>
@@ -5101,13 +5386,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C87" t="str">
-        <v>Coffee</v>
+        <v>Snack</v>
       </c>
       <c r="D87">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E87" t="str">
         <v>6</v>
@@ -5116,529 +5401,9 @@
         <v>cheque</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>63</v>
-      </c>
-      <c r="C88" t="str">
-        <v>Coffee</v>
-      </c>
-      <c r="D88">
-        <v>6</v>
-      </c>
-      <c r="E88" t="str">
-        <v>7</v>
-      </c>
-      <c r="F88" t="str">
-        <v>cheque</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>63</v>
-      </c>
-      <c r="C89" t="str">
-        <v>Coffee</v>
-      </c>
-      <c r="D89">
-        <v>10</v>
-      </c>
-      <c r="E89" t="str">
-        <v>4</v>
-      </c>
-      <c r="F89" t="str">
-        <v>e-transfer</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>64</v>
-      </c>
-      <c r="C90" t="str">
-        <v>Meal</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90" t="str">
-        <v>2</v>
-      </c>
-      <c r="F90" t="str">
-        <v>cheque</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>65</v>
-      </c>
-      <c r="C91" t="str">
-        <v>Coffee</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-      <c r="E91" t="str">
-        <v>7</v>
-      </c>
-      <c r="F91" t="str">
-        <v>cash</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>65</v>
-      </c>
-      <c r="C92" t="str">
-        <v>Snack</v>
-      </c>
-      <c r="D92">
-        <v>11</v>
-      </c>
-      <c r="E92" t="str">
-        <v>5</v>
-      </c>
-      <c r="F92" t="str">
-        <v>cash</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>65</v>
-      </c>
-      <c r="C93" t="str">
-        <v>Coffee</v>
-      </c>
-      <c r="D93">
-        <v>7</v>
-      </c>
-      <c r="E93" t="str">
-        <v>2</v>
-      </c>
-      <c r="F93" t="str">
-        <v>cheque</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>66</v>
-      </c>
-      <c r="C94" t="str">
-        <v>Snack</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94" t="str">
-        <v>0</v>
-      </c>
-      <c r="F94" t="str">
-        <v>e-transfer</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>66</v>
-      </c>
-      <c r="C95" t="str">
-        <v>Snack</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95" t="str">
-        <v>1</v>
-      </c>
-      <c r="F95" t="str">
-        <v>e-transfer</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>66</v>
-      </c>
-      <c r="C96" t="str">
-        <v>Coffee</v>
-      </c>
-      <c r="D96">
-        <v>10</v>
-      </c>
-      <c r="E96" t="str">
-        <v>6</v>
-      </c>
-      <c r="F96" t="str">
-        <v>cheque</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>67</v>
-      </c>
-      <c r="C97" t="str">
-        <v>Coffee</v>
-      </c>
-      <c r="D97">
-        <v>11</v>
-      </c>
-      <c r="E97" t="str">
-        <v>1</v>
-      </c>
-      <c r="F97" t="str">
-        <v>e-transfer</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>67</v>
-      </c>
-      <c r="C98" t="str">
-        <v>Coffee</v>
-      </c>
-      <c r="D98">
-        <v>17</v>
-      </c>
-      <c r="E98" t="str">
-        <v>6</v>
-      </c>
-      <c r="F98" t="str">
-        <v>e-transfer</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>68</v>
-      </c>
-      <c r="C99" t="str">
-        <v>Coffee</v>
-      </c>
-      <c r="D99">
-        <v>13</v>
-      </c>
-      <c r="E99" t="str">
-        <v>10</v>
-      </c>
-      <c r="F99" t="str">
-        <v>cash</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>68</v>
-      </c>
-      <c r="C100" t="str">
-        <v>Meal</v>
-      </c>
-      <c r="D100">
-        <v>13</v>
-      </c>
-      <c r="E100" t="str">
-        <v>2</v>
-      </c>
-      <c r="F100" t="str">
-        <v>e-transfer</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>69</v>
-      </c>
-      <c r="C101" t="str">
-        <v>Coffee</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101" t="str">
-        <v>3</v>
-      </c>
-      <c r="F101" t="str">
-        <v>e-transfer</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <v>69</v>
-      </c>
-      <c r="C102" t="str">
-        <v>Coffee</v>
-      </c>
-      <c r="D102">
-        <v>7</v>
-      </c>
-      <c r="E102" t="str">
-        <v>5</v>
-      </c>
-      <c r="F102" t="str">
-        <v>cash</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>69</v>
-      </c>
-      <c r="C103" t="str">
-        <v>Meal</v>
-      </c>
-      <c r="D103">
-        <v>16</v>
-      </c>
-      <c r="E103" t="str">
-        <v>8</v>
-      </c>
-      <c r="F103" t="str">
-        <v>e-transfer</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>70</v>
-      </c>
-      <c r="C104" t="str">
-        <v>Coffee</v>
-      </c>
-      <c r="D104">
-        <v>3</v>
-      </c>
-      <c r="E104" t="str">
-        <v>1</v>
-      </c>
-      <c r="F104" t="str">
-        <v>cheque</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105">
-        <v>70</v>
-      </c>
-      <c r="C105" t="str">
-        <v>Coffee</v>
-      </c>
-      <c r="D105">
-        <v>7</v>
-      </c>
-      <c r="E105" t="str">
-        <v>1</v>
-      </c>
-      <c r="F105" t="str">
-        <v>cheque</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106">
-        <v>70</v>
-      </c>
-      <c r="C106" t="str">
-        <v>Snack</v>
-      </c>
-      <c r="D106">
-        <v>19</v>
-      </c>
-      <c r="E106" t="str">
-        <v>4</v>
-      </c>
-      <c r="F106" t="str">
-        <v>cheque</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>71</v>
-      </c>
-      <c r="C107" t="str">
-        <v>Coffee</v>
-      </c>
-      <c r="D107">
-        <v>18</v>
-      </c>
-      <c r="E107" t="str">
-        <v>5</v>
-      </c>
-      <c r="F107" t="str">
-        <v>cash</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108">
-        <v>71</v>
-      </c>
-      <c r="C108" t="str">
-        <v>Snack</v>
-      </c>
-      <c r="D108">
-        <v>13</v>
-      </c>
-      <c r="E108" t="str">
-        <v>8</v>
-      </c>
-      <c r="F108" t="str">
-        <v>e-transfer</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <v>72</v>
-      </c>
-      <c r="C109" t="str">
-        <v>Meal</v>
-      </c>
-      <c r="D109">
-        <v>18</v>
-      </c>
-      <c r="E109" t="str">
-        <v>4</v>
-      </c>
-      <c r="F109" t="str">
-        <v>cheque</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110">
-        <v>72</v>
-      </c>
-      <c r="C110" t="str">
-        <v>Snack</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110" t="str">
-        <v>3</v>
-      </c>
-      <c r="F110" t="str">
-        <v>cheque</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111">
-        <v>72</v>
-      </c>
-      <c r="C111" t="str">
-        <v>Coffee</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111" t="str">
-        <v>5</v>
-      </c>
-      <c r="F111" t="str">
-        <v>e-transfer</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112">
-        <v>73</v>
-      </c>
-      <c r="C112" t="str">
-        <v>Snack</v>
-      </c>
-      <c r="D112">
-        <v>4</v>
-      </c>
-      <c r="E112" t="str">
-        <v>3</v>
-      </c>
-      <c r="F112" t="str">
-        <v>cheque</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113">
-        <v>73</v>
-      </c>
-      <c r="C113" t="str">
-        <v>Meal</v>
-      </c>
-      <c r="D113">
-        <v>5</v>
-      </c>
-      <c r="E113" t="str">
-        <v>1</v>
-      </c>
-      <c r="F113" t="str">
-        <v>e-transfer</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F113"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F87"/>
   </ignoredErrors>
 </worksheet>
 </file>